--- a/resources/materials/newFlights.xlsx
+++ b/resources/materials/newFlights.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sshmeltz/Demos/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6E68DE-F52E-9E4A-BA08-27FA83A981F7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="36100" windowHeight="19860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Travel Requests" sheetId="1" r:id="rId1"/>
     <sheet name="Airlines" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -97,15 +91,9 @@
     <t>US</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
     <t>CA</t>
   </si>
   <si>
-    <t>BR</t>
-  </si>
-  <si>
     <t>From</t>
   </si>
   <si>
@@ -118,9 +106,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>IL</t>
-  </si>
-  <si>
     <t>IN</t>
   </si>
   <si>
@@ -136,9 +121,6 @@
     <t>JP</t>
   </si>
   <si>
-    <t>AF</t>
-  </si>
-  <si>
     <t>Airline</t>
   </si>
   <si>
@@ -155,18 +137,73 @@
   </si>
   <si>
     <t>El Al</t>
+  </si>
+  <si>
+    <t>QANTAS</t>
+  </si>
+  <si>
+    <t>Singapore Airlines</t>
+  </si>
+  <si>
+    <t>China Eastern</t>
+  </si>
+  <si>
+    <t>Cathay Pacific</t>
+  </si>
+  <si>
+    <t>Jet Airways</t>
+  </si>
+  <si>
+    <t>Korean Airlines</t>
+  </si>
+  <si>
+    <t>Malaysian</t>
+  </si>
+  <si>
+    <t>Air India</t>
+  </si>
+  <si>
+    <t>Emirates</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>Asiana</t>
+  </si>
+  <si>
+    <t>Japan Airlines</t>
+  </si>
+  <si>
+    <t>Thai Airways</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,7 +320,7 @@
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 2" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -619,14 +656,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="18.83203125" customWidth="1"/>
@@ -634,28 +671,28 @@
     <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
       </c>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -663,7 +700,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>1200</v>
@@ -676,15 +713,15 @@
       </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>800</v>
@@ -697,15 +734,15 @@
       </c>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>1100</v>
@@ -718,15 +755,15 @@
       </c>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>2200</v>
@@ -739,7 +776,7 @@
       </c>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -747,7 +784,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>400</v>
@@ -760,15 +797,15 @@
       </c>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>1100</v>
@@ -781,15 +818,15 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>1500</v>
@@ -802,15 +839,15 @@
       </c>
       <c r="H8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>900</v>
@@ -823,12 +860,12 @@
       </c>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -844,7 +881,7 @@
       </c>
       <c r="H10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -852,7 +889,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>1800</v>
@@ -867,9 +904,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{4328B1C7-DB13-A64E-B328-CC4105DE196D}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{C0DF33A5-E672-B64E-BEB7-87D881E12770}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{3E775146-B605-F845-965D-6CE67968CEA8}"/>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -882,46 +919,112 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:A18">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
